--- a/Heathrow.xlsx
+++ b/Heathrow.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\Teach\DataAnalysis\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UNIVERSITY\AUTh - Electrical and Computer Engineering\Notes and Assignments\7th SEMESTER\Data Analysis\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32262E0-7EB4-47BD-812C-8F60ABD0FD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="19155" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,8 +126,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
-    <cellStyle name="Υπερ-σύνδεση" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,12 +466,12 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1949</v>
       </c>
@@ -544,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1950</v>
       </c>
@@ -580,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1951</v>
       </c>
@@ -616,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1952</v>
       </c>
@@ -652,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1953</v>
       </c>
@@ -688,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1954</v>
       </c>
@@ -724,7 +725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1955</v>
       </c>
@@ -760,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1956</v>
       </c>
@@ -796,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1957</v>
       </c>
@@ -832,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1958</v>
       </c>
@@ -868,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1973</v>
       </c>
@@ -904,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1974</v>
       </c>
@@ -940,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1975</v>
       </c>
@@ -978,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1976</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1977</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1978</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1979</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1980</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1981</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1982</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1983</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1984</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1985</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1986</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1987</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1988</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1989</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1990</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1991</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1992</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1993</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1994</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1995</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1996</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1997</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1998</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1999</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2000</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2001</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2002</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>2003</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2004</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>2005</v>
       </c>
@@ -2082,7 +2083,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>2006</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>2007</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>2008</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>2009</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2010</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>2011</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>2012</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>2013</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>2014</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2015</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>2016</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2017</v>
       </c>
@@ -2602,7 +2603,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2614,7 +2615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
